--- a/biology/Zoologie/Cadurcotherium/Cadurcotherium.xlsx
+++ b/biology/Zoologie/Cadurcotherium/Cadurcotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cadurcotherium, est un  genre fossile de rhinocéros primitifs, sans cornes, de la famille également éteinte des Amynodontidae, et parfois placé dans la tribu des Cadurcodontini[2].
-Il a vécu en Europe (France, Suisse, Bosnie-Herzégovine, Espagne, Allemagne) durant l'Oligocène, il y a environ entre 33,9 et 23,03 millions d'années[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cadurcotherium, est un  genre fossile de rhinocéros primitifs, sans cornes, de la famille également éteinte des Amynodontidae, et parfois placé dans la tribu des Cadurcodontini.
+Il a vécu en Europe (France, Suisse, Bosnie-Herzégovine, Espagne, Allemagne) durant l'Oligocène, il y a environ entre 33,9 et 23,03 millions d'années.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les aminodontidés, Cadurcotherium avait un aspect vaguement similaire à celui d'un hippopotame ou d'un tapir, avec des pattes relativement courtes et un corps allongé. Le crâne était plutôt court et se terminait probablement par une courte trompe (du fait de la rétraction des os du nez). C'était un représentant spécialisé de son groupe. Il possède une denture caractéristique avec deux incisives supérieures et une inférieure sur chaque branche de la mâchoire. Ses prémolaires et molaires avaient une couronne très haute (hypsodontes), de section très étroite pour les molaires inférieures.
-Le crâne de C. cayluxi mesure environ 60 centimètres de long, tandis que celui de C. minus, est, comme son nom l'indique, plus petit[3].
+Le crâne de C. cayluxi mesure environ 60 centimètres de long, tandis que celui de C. minus, est, comme son nom l'indique, plus petit.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deux ou trois espèces de Cadurcotherium sont généralement retenues :
-† Cadurcotherium cayluxi, l'espèce type, définie à l'origine uniquement par des dents, est connue sur plusieurs sites de différents niveaux d'âge Rupélien en France, dans le Cantal, Lot, Tarn-et-Garonne, Alpes-de-Haute-Provence et Essonne[3],[4]. L'espèce « C. nouleti », également découverte sur plusieurs gisements français et en Espagne au Rupélien et au Chattien, est aujourd'hui mise en synonymie avec C. cayluxi[3],[5] ;
-† Cadurcotherium minus est connue dans le Rupélien du sud-ouest et du centre de la France et en Suisse (Canton du Jura). Elle provient de niveaux stratigraphiques rupéliens un peu plus anciens que ceux qui ont fourni C. cayluxi. C. minus pourrait ainsi avoir précédé C. cayluxi[3] ;
-† Cadurcotherium rakoveci, décrite dans le Chattien de Bosnie-Herzégovine. Selon B. Ménouret (2018) « Les différences entre les espèces C. minus et C. rakoveci sont très faibles, elles pourraient être synonymes »[3].</t>
+† Cadurcotherium cayluxi, l'espèce type, définie à l'origine uniquement par des dents, est connue sur plusieurs sites de différents niveaux d'âge Rupélien en France, dans le Cantal, Lot, Tarn-et-Garonne, Alpes-de-Haute-Provence et Essonne,. L'espèce « C. nouleti », également découverte sur plusieurs gisements français et en Espagne au Rupélien et au Chattien, est aujourd'hui mise en synonymie avec C. cayluxi, ;
+† Cadurcotherium minus est connue dans le Rupélien du sud-ouest et du centre de la France et en Suisse (Canton du Jura). Elle provient de niveaux stratigraphiques rupéliens un peu plus anciens que ceux qui ont fourni C. cayluxi. C. minus pourrait ainsi avoir précédé C. cayluxi ;
+† Cadurcotherium rakoveci, décrite dans le Chattien de Bosnie-Herzégovine. Selon B. Ménouret (2018) « Les différences entre les espèces C. minus et C. rakoveci sont très faibles, elles pourraient être synonymes ».</t>
         </is>
       </c>
     </row>
